--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apollinairemoreno/Dropbox/MyDemoandPOC/terraform-FTGT-HA_2AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBCA651-2F7F-854A-BF3F-3987D5D3B1C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60169A7-7A6E-E44A-A451-B05D9E33D889}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>FTGT-HA2AZ_PAYG</t>
   </si>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE31D82-5F31-7D41-9733-B6089402FECD}">
   <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,7 +640,10 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -649,7 +652,10 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -658,7 +664,10 @@
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -667,7 +676,10 @@
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -676,7 +688,10 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -685,7 +700,10 @@
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -694,7 +712,10 @@
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -703,7 +724,10 @@
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apollinairemoreno/Dropbox/MyDemoandPOC/terraform-FTGT-HA_2AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60169A7-7A6E-E44A-A451-B05D9E33D889}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2A564-D423-8649-B3E3-A515A2843D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>FTGT-HA2AZ_PAYG</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>this is the id, not the CIDR !</t>
+  </si>
+  <si>
+    <t>BYOL or PAYG</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <dimension ref="B3:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,10 +811,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="21" x14ac:dyDescent="0.25">

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apollinairemoreno/Dropbox/MyDemoandPOC/terraform-FTGT-HA_2AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E2A564-D423-8649-B3E3-A515A2843D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A16D5B-02F6-5745-82F7-39894E4D437B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
+    <workbookView xWindow="10360" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Deploy_EC2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
   <si>
     <t>FTGT-HA2AZ_PAYG</t>
   </si>
@@ -169,13 +170,187 @@
   </si>
   <si>
     <t>BYOL or PAYG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ami                         = var.test_amis[var.region]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    availability_zone           = var.avail-zone-c[var.region]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ebs_optimized               = false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    instance_type               = "t2.micro"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    monitoring                  = false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    key_name                    = var.ec2_key_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    subnet_id                   = aws_subnet.PublicSubnet.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vpc_security_group_ids      = [aws_security_group.SG_Public.id]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    associate_public_ip_address = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private_ip                  = "172.16.0.50"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    source_dest_check           = true</t>
+  </si>
+  <si>
+    <t>variable "region" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type        = string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default     = ""</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>variable "test_amis" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  type = "map"</t>
+  </si>
+  <si>
+    <t>variable "avail-zone-a" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type = "map" </t>
+  </si>
+  <si>
+    <t>variable "avail-zone-b" {</t>
+  </si>
+  <si>
+    <t>variable "avail-zone-c" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type = "map"</t>
+  </si>
+  <si>
+    <t>variable "ec2_key_name" {</t>
+  </si>
+  <si>
+    <t>type        = string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default   = ""</t>
+  </si>
+  <si>
+    <t>Deploy_EC2</t>
+  </si>
+  <si>
+    <t>Main Variables</t>
+  </si>
+  <si>
+    <t>variable "admin_ip" {</t>
+  </si>
+  <si>
+    <t>#Update with admin machine's IP address</t>
+  </si>
+  <si>
+    <t>default     = ["0.0.0.0/0"]</t>
+  </si>
+  <si>
+    <t>description = "admin IP addresses in CIDR format"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> default = "us-east-1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default = {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-1" = "ami-b374d5a5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-west-2" = "ami-4b32be2b"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-2" = "ami-02bcbb802e03574ba"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> type        = string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> default = "AWS-FTGT"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-1" = "us-east-1a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-west-2" = "us-west-2a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-2" = "us-east-2a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-1" = "us-east-1b"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-west-2" = "us-west-2b"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-2" = "us-east-2b"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-1" = "us-east-1c"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-west-2" = "us-west-2c"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "us-east-2" = "us-east-2c"</t>
+  </si>
+  <si>
+    <t>variable "t-pot_ec2_instance_type" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default = "t3.large"</t>
+  </si>
+  <si>
+    <t>variable "generic_name" {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  description = "In case a generic name is needed"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  default     = "FTGT-VM_T-POT"</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region </t>
+  </si>
+  <si>
+    <t>Variables in "00. variables_FTGT-HA_2AZ.tf"</t>
+  </si>
+  <si>
+    <t>Need to add</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +382,13 @@
       <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -259,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +451,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE31D82-5F31-7D41-9733-B6089402FECD}">
   <dimension ref="B3:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -927,4 +1111,407 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3831F88F-3233-DC41-9915-67C8AC350985}">
+  <dimension ref="B3:E63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apollinairemoreno/Dropbox/MyDemoandPOC/terraform-FTGT-HA_2AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A16D5B-02F6-5745-82F7-39894E4D437B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1457A9-1CB3-CF43-B10D-0CB2860EAE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
+    <workbookView xWindow="7700" yWindow="6400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>FTGT-HA2AZ_PAYG</t>
   </si>
@@ -344,6 +344,42 @@
   </si>
   <si>
     <t>Need to add</t>
+  </si>
+  <si>
+    <t>Parameters when calling 03.Deploy_EC2_VMs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tf_existing_VPC_id = "${module.Deploy_VPC.existing_VPC_id}" </t>
+  </si>
+  <si>
+    <t>tf_existing_VPC_id       = "${var.tf_existing_VPC_id}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tf_ProtectedSubnet2          = "${var.tf_ProtectedSubnet2}"</t>
+  </si>
+  <si>
+    <t>tf_AZForSubnetVM2      = "${var.tf_AZForSubnetVM2}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tf_ProtectedSubnet1          = "${var.tf_ProtectedSubnet1}"</t>
+  </si>
+  <si>
+    <t>tf_AZForSubnetVM1      = "${var.tf_AZForSubnetVM1}"</t>
+  </si>
+  <si>
+    <t>test.amis</t>
+  </si>
+  <si>
+    <t>var.test_amis[var.region]</t>
+  </si>
+  <si>
+    <t>tf_ec2_key_name = "${var.tf_ec2_key_name}</t>
+  </si>
+  <si>
+    <t>tf_Windows_VM_1_ip = "${var.tf_WindowsVM1_ip}"</t>
+  </si>
+  <si>
+    <t>tf_Windows_VM_2_ip = "${var.tf_WindowsVM2_ip}"</t>
   </si>
 </sst>
 </file>
@@ -1115,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3831F88F-3233-DC41-9915-67C8AC350985}">
-  <dimension ref="B3:E63"/>
+  <dimension ref="B3:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1164,7 @@
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>73</v>
       </c>
@@ -1138,16 +1174,22 @@
       <c r="E3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>102</v>
       </c>
       <c r="C4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>48</v>
       </c>
@@ -1157,85 +1199,115 @@
       <c r="E5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>57</v>
       </c>
       <c r="E14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E16" s="9" t="s">
         <v>63</v>
       </c>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apollinairemoreno/Dropbox/MyDemoandPOC/terraform-FTGT-HA_2AZ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1457A9-1CB3-CF43-B10D-0CB2860EAE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A6D40E-3E6A-DB42-959E-C34036321779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="6400" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
+    <workbookView xWindow="7700" yWindow="2760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{E77111AD-3E71-B244-9914-82757D967FAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Deploy_EC2" sheetId="2" r:id="rId2"/>
+    <sheet name="AWS Regions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="192">
   <si>
     <t>FTGT-HA2AZ_PAYG</t>
   </si>
@@ -380,13 +381,235 @@
   </si>
   <si>
     <t>tf_Windows_VM_2_ip = "${var.tf_WindowsVM2_ip}"</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Endpoint</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>US East (Ohio)</t>
+  </si>
+  <si>
+    <t>us-east-2</t>
+  </si>
+  <si>
+    <t>rds.us-east-2.amazonaws.com</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>US East (N. Virginia)</t>
+  </si>
+  <si>
+    <t>us-east-1</t>
+  </si>
+  <si>
+    <t>rds.us-east-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>US West (N. California)</t>
+  </si>
+  <si>
+    <t>us-west-1</t>
+  </si>
+  <si>
+    <t>rds.us-west-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>US West (Oregon)</t>
+  </si>
+  <si>
+    <t>us-west-2</t>
+  </si>
+  <si>
+    <t>rds.us-west-2.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Hong Kong)</t>
+  </si>
+  <si>
+    <t>ap-east-1</t>
+  </si>
+  <si>
+    <t>rds.ap-east-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Mumbai)</t>
+  </si>
+  <si>
+    <t>ap-south-1</t>
+  </si>
+  <si>
+    <t>rds.ap-south-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Osaka-Local)</t>
+  </si>
+  <si>
+    <t>ap-northeast-3</t>
+  </si>
+  <si>
+    <t>rds.ap-northeast-3.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Seoul)</t>
+  </si>
+  <si>
+    <t>ap-northeast-2</t>
+  </si>
+  <si>
+    <t>rds.ap-northeast-2.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Singapore)</t>
+  </si>
+  <si>
+    <t>ap-southeast-1</t>
+  </si>
+  <si>
+    <t>rds.ap-southeast-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Sydney)</t>
+  </si>
+  <si>
+    <t>ap-southeast-2</t>
+  </si>
+  <si>
+    <t>rds.ap-southeast-2.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Asia Pacific (Tokyo)</t>
+  </si>
+  <si>
+    <t>ap-northeast-1</t>
+  </si>
+  <si>
+    <t>rds.ap-northeast-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Canada (Central)</t>
+  </si>
+  <si>
+    <t>ca-central-1</t>
+  </si>
+  <si>
+    <t>rds.ca-central-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>China (Beijing)</t>
+  </si>
+  <si>
+    <t>cn-north-1</t>
+  </si>
+  <si>
+    <t>rds.cn-north-1.amazonaws.com.cn</t>
+  </si>
+  <si>
+    <t>China (Ningxia)</t>
+  </si>
+  <si>
+    <t>cn-northwest-1</t>
+  </si>
+  <si>
+    <t>rds.cn-northwest-1.amazonaws.com.cn</t>
+  </si>
+  <si>
+    <t>EU (Frankfurt)</t>
+  </si>
+  <si>
+    <t>eu-central-1</t>
+  </si>
+  <si>
+    <t>rds.eu-central-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>EU (Ireland)</t>
+  </si>
+  <si>
+    <t>eu-west-1</t>
+  </si>
+  <si>
+    <t>rds.eu-west-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>EU (London)</t>
+  </si>
+  <si>
+    <t>eu-west-2</t>
+  </si>
+  <si>
+    <t>rds.eu-west-2.amazonaws.com</t>
+  </si>
+  <si>
+    <t>EU (Paris)</t>
+  </si>
+  <si>
+    <t>eu-west-3</t>
+  </si>
+  <si>
+    <t>rds.eu-west-3.amazonaws.com</t>
+  </si>
+  <si>
+    <t>EU (Stockholm)</t>
+  </si>
+  <si>
+    <t>eu-north-1</t>
+  </si>
+  <si>
+    <t>rds.eu-north-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Middle East (Bahrain)</t>
+  </si>
+  <si>
+    <t>me-south-1</t>
+  </si>
+  <si>
+    <t>rds.me-south-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>South America (Sao Paulo)</t>
+  </si>
+  <si>
+    <t>sa-east-1</t>
+  </si>
+  <si>
+    <t>rds.sa-east-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>AWS GovCloud (US-East)</t>
+  </si>
+  <si>
+    <t>us-gov-east-1</t>
+  </si>
+  <si>
+    <t>rds.us-gov-east-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>AWS GovCloud (US-West)</t>
+  </si>
+  <si>
+    <t>us-gov-west-1</t>
+  </si>
+  <si>
+    <t>rds.us-gov-west-1.amazonaws.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -425,6 +648,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -477,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +719,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1154,7 +1385,7 @@
   <dimension ref="B3:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1586,4 +1817,358 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EAB9C1-B9C5-EB40-96A4-51A0E6F5A992}">
+  <dimension ref="D2:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D2" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>